--- a/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
+++ b/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnwls\Desktop\ProjectIrrational\Assets\ExcelBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnwls\Desktop\팀 비이성적\Project_Irrational\ProjectIrrational\Assets\ExcelBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ABD97E-AB21-46FF-8680-C01103EF976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC11369-0C66-442D-AC3C-9053096FCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1560" windowWidth="22260" windowHeight="14460" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DialogText" sheetId="1" r:id="rId1"/>
+    <sheet name="SelectText" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,61 @@
   </si>
   <si>
     <t>textContents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasSelectEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물통 사기</t>
+  </si>
+  <si>
+    <t>사전 투표 잊지말기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 청소하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectEventNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 고를까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소에서 물통을 사야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 투표는 다른 지역에서도 가능한 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키캡을 전부 분리하여 청소하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectText1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectText2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectText3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectText4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +130,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,12 +168,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,39 +512,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B60D93-CA8C-4600-8780-B846295DA363}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="127.75" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4DDEFE-EED1-4912-89B8-F021A61386C2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="5" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
+++ b/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnwls\Desktop\팀 비이성적\Project_Irrational\ProjectIrrational\Assets\ExcelBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnwls\Desktop\TeamIrrational\Project_Irrational\ProjectIrrational\Assets\ExcelBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC11369-0C66-442D-AC3C-9053096FCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD8D08-9C41-4D85-9AD2-45EECED7A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
+    <workbookView xWindow="10875" yWindow="885" windowWidth="17505" windowHeight="11295" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
     <sheet name="SelectText" sheetId="2" r:id="rId2"/>
+    <sheet name="RandomEventTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,18 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이소에서 물통을 사야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전 투표는 다른 지역에서도 가능한 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키캡을 전부 분리하여 청소하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selectText1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +96,246 @@
   </si>
   <si>
     <t>selectText4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세계의 기준이 뒤바뀌며, 크툴루의 시선을 끌다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">크툴루는 기념삼아 한명을 자신이 만든 거울 세계로 수집했다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">거울세계에 끌려온자는 심장을 빼앗긴 채로 살아간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끌려오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남녀노소를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가리지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 죽을 수 있다 </t>
+  </si>
+  <si>
+    <t>하지만 바로 다음날 죽었던 그 자리, 그 시간대에 온전한 형태로 직전의 기억을 가진채로 부활이 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이전에 남았던 시체는 모두 사라졌다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태초의 거울 세계는 평야와 숲뿐이었으나, 사람이 추가 될수록 지형이 바뀌어갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-2</t>
+  </si>
+  <si>
+    <t>eventID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printEventImageResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 이벤트 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 이벤트 4</t>
+  </si>
+  <si>
+    <t>랜덤 이벤트 5</t>
+  </si>
+  <si>
+    <t>랜덤 이벤트 6</t>
+  </si>
+  <si>
+    <t>A-0</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>A-3</t>
+  </si>
+  <si>
+    <t>A-4</t>
+  </si>
+  <si>
+    <t>A-1 1</t>
+  </si>
+  <si>
+    <t>A-2 1</t>
+  </si>
+  <si>
+    <t>A-3 1</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>B-2</t>
+  </si>
+  <si>
+    <t>triggerEvent1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerEvent2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerEvent3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerEvent4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRandomEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventEarphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventBuyFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 음식 관련 이벤트 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 음식 관련 이벤트 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 음식 관련 이벤트 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 택배 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 택배 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 택배 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +368,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +399,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +449,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,15 +806,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B60D93-CA8C-4600-8780-B846295DA363}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="127.75" customWidth="1"/>
+    <col min="2" max="2" width="95.75" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,7 +831,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -548,7 +842,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -559,7 +853,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -572,112 +866,142 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -688,52 +1012,235 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4DDEFE-EED1-4912-89B8-F021A61386C2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="5" width="37.75" customWidth="1"/>
-    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="1" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
+    <col min="11" max="12" width="33.375" customWidth="1"/>
+    <col min="13" max="13" width="48" customWidth="1"/>
+    <col min="14" max="14" width="23.125" customWidth="1"/>
+    <col min="15" max="15" width="37.75" customWidth="1"/>
+    <col min="16" max="16" width="22.875" customWidth="1"/>
+    <col min="17" max="17" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J1" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37676BE2-DF27-49B0-A98D-6816C9DF6BF6}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="40.75" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
+++ b/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnwls\Desktop\TeamIrrational\Project_Irrational\ProjectIrrational\Assets\ExcelBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD8D08-9C41-4D85-9AD2-45EECED7A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A53EEB-FD36-4215-B895-473DD62940FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="885" windowWidth="17505" windowHeight="11295" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
+    <workbookView xWindow="42384" yWindow="-3096" windowWidth="17508" windowHeight="11292" activeTab="1" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
@@ -38,20 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영원한 건 절대 없어 결국에 넌 변했지 이유도 없어 진심이 없어 사랑 같은 소리 따윈 집어쳐 오늘밤은 삐딱하게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스스로 불러온 재앙에 짓눌려 탄식은 하늘을 가리우며 멸망의 공포가 지배하는 이곳 희망은 이미 날개를 접었나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>textContents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,17 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물통 사기</t>
-  </si>
-  <si>
-    <t>사전 투표 잊지말기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키보드 청소하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selectEventNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뭘 고를까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>selectText1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,131 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">세계의 기준이 뒤바뀌며, 크툴루의 시선을 끌다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">크툴루는 기념삼아 한명을 자신이 만든 거울 세계로 수집했다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">거울세계에 끌려온자는 심장을 빼앗긴 채로 살아간다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끌려오는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남녀노소를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가리지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않는다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론 죽을 수 있다 </t>
-  </si>
-  <si>
-    <t>하지만 바로 다음날 죽었던 그 자리, 그 시간대에 온전한 형태로 직전의 기억을 가진채로 부활이 되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이전에 남았던 시체는 모두 사라졌다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태초의 거울 세계는 평야와 숲뿐이었으나, 사람이 추가 될수록 지형이 바뀌어갔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eventImage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,19 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤 이벤트 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 이벤트 4</t>
-  </si>
-  <si>
-    <t>랜덤 이벤트 5</t>
-  </si>
-  <si>
-    <t>랜덤 이벤트 6</t>
-  </si>
-  <si>
     <t>A-0</t>
   </si>
   <si>
@@ -303,39 +142,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testRandomEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventEarphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventBuyFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 음식 관련 이벤트 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 음식 관련 이벤트 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 음식 관련 이벤트 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 택배 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 택배 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 택배 3</t>
+    <t>묘하게 조용한 오두막이었지만 얼핏 밖에서 사람의 목소리가 들려오는 듯했다.</t>
+  </si>
+  <si>
+    <t>깨질 듯이 머리가 아파왔지만, 일단 이 곳이 어딘지 알고 싶었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낡은 문을 밀며 조심스레 문 밖을 나와서 발걸음을 옮겼다. 
+</t>
+  </si>
+  <si>
+    <t>나는 금방 내가 있던 곳이 숲 속의 낡은 오두막이라는 것을 깨달았다.</t>
+  </si>
+  <si>
+    <t>왜 나는 이런 곳에 있는 것일까. 나는 분명…어…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작은 침묵에 어두운 문틈 사이로 조그맣게 들어오는 어설픈 빛. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 내가 이 세상에서 처음으로 마주하는 장면이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 고개를 들어서 주위를 살폈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고개를 들어 주위를 살핀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 밖을 나선다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억이 나지 않았다.</t>
+  </si>
+  <si>
+    <t># 선택지 전 출력 대사 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 선택지 전 출력 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 선택지가 있는지 판단하는 변수(0: false, 1: true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 사용될 이미지 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 선택지 버튼 텍스트 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 선택지 버튼 텍스트 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 선택지 버튼 텍스트 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 선택지 버튼 텍스트 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 랜덤 이벤트 배열명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 이벤트 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 불러올 이미지 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 본문에 표시될 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventTest1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventTest2</t>
+  </si>
+  <si>
+    <t>eventTest3</t>
+  </si>
+  <si>
+    <t>끼익--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억이 나지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 순차적 선택지 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,18 +287,27 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -436,12 +357,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,12 +373,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,9 +388,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{54A77CB9-FA1D-4A9D-8761-21F944ABA166}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,16 +740,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B60D93-CA8C-4600-8780-B846295DA363}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="95.75" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,208 +758,196 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4DDEFE-EED1-4912-89B8-F021A61386C2}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="22.375" customWidth="1"/>
     <col min="11" max="12" width="33.375" customWidth="1"/>
     <col min="13" max="13" width="48" customWidth="1"/>
@@ -1035,35 +958,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>45</v>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1071,28 +994,91 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1103,16 +1089,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37676BE2-DF27-49B0-A98D-6816C9DF6BF6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="40.75" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="40.75" customWidth="1"/>
@@ -1123,14 +1109,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,109 +1124,99 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>49</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
+++ b/ProjectIrrational/Assets/ExcelBase/MainText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnwls\Desktop\TeamIrrational\Project_Irrational\ProjectIrrational\Assets\ExcelBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A53EEB-FD36-4215-B895-473DD62940FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF10BE3A-E596-4B66-A68D-62A48A900BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42384" yWindow="-3096" windowWidth="17508" windowHeight="11292" activeTab="1" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
+    <workbookView xWindow="23508" yWindow="-1020" windowWidth="17508" windowHeight="11292" activeTab="1" xr2:uid="{0513F99B-7757-4023-98E2-E9DAFC1059E5}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># 선택지가 있는지 판단하는 변수(0: false, 1: true)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t># 사용될 이미지 파일 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +244,1637 @@
   </si>
   <si>
     <t># 순차적 선택지 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>왜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이곳에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>되었는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어떻게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>살아왔는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>심지어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이름조차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무엇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기억나지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>않았다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>점점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>심각성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>깨달아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>가고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>있을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>때쯤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>숲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>속에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한무리의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사람들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>나에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>다가왔다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>명의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>남자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>명의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>중에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>리더로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>남자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>말을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>걸어왔다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이봐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>괜찮나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>몸이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>좋지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>않아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보이는군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>도와줄까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생글생글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>웃으며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>다가오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>얼굴에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>왠지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모르게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>주춤거리며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>뒤로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한걸음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물러섰다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이쪽의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>경계심을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>알아본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>걸까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>남자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>양</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>손을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>펼쳐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보이며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>말을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이어갔다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이런이런</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>갑작스러웠나보군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>걱정말게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무장도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>있지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>않아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호의를 받아들였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호의를 거절했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventTest4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“그래그래 걱정하지 말게. 그저 만난 사람이 반가웠을 뿐이야. 인간이라면 응당 호의를 호의로 받아들일 줄도 알아야지. 그럼 잠시…”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자는 내게 다가오더니 나의 맥을 짚으며 간단히 내 상태를 봐주었다. </t>
+  </si>
+  <si>
+    <t>친절해 보이는 모습이었지만, 나는 분명 그 남자가 쯧, 이라며 혀를 차는 모습을 보았다. 하지만 아주 잠깐이었기에 일단 가만히 지켜볼 뿐이었다.</t>
+  </si>
+  <si>
+    <t># 이벤트 본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이벤트</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본문</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#본문 텍스트 중 이미지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“그냥 잠깐의 현기증 같군 그래. 금방 괜찮아질꺼야.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자는 내 어깨를 두드리며 나를 안심시키고는 잠시 무리로 돌아가서 이런 저런 얘기를 나누다가 내게 돌아왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“아쉽게도 우리는 일이 있어서 이만 가봐야 하는데, 혹시 궁금한 거라도 있나?”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 곳은 어디죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 조심스럽게 이 곳이 어딘지 물어보았다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“자네가 말하는 ‘이 곳’은 여러 의미가 있군… 일단 우리가 있는 이 곳은 ---이라고 불리는 숲이라네. 그리고 자네가 원하는 답을 듣고 싶다면… 그래 그 할매가 좋겠군. 저쪽의 커다란 나무 보이지? 저쪽으로 쭉 가면 커다란 나무집이 나올거야. 거기서 도움을 청해보게. 자네가 원하는 답들을 들을 수 있을거야.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자는 행운을 빈다며 나에게 작은 동전 하나를 건네 주며 떠났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#가감할 스텟의 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventTest5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 특정 요소가 있는지 판단하는 변수
+(0: 없음, 1: 선택지 출력 이벤트, 
+2: 이미지 출력, 3: 스텟 가감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 체력 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 정신력 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statMental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#가감할 스텟 타입
+statCoin: 돈
+statHeart: 체력
+statMenatl: 정신력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신력 -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +1882,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +1936,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +2012,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,7 +2034,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +2075,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,20 +2426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B60D93-CA8C-4600-8780-B846295DA363}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="95.75" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="2" max="2" width="122.25" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,8 +2452,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -774,19 +2472,37 @@
       <c r="C2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -796,8 +2512,17 @@
       <c r="C4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -807,8 +2532,17 @@
       <c r="C5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -818,8 +2552,17 @@
       <c r="C6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -829,8 +2572,17 @@
       <c r="C7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -840,8 +2592,17 @@
       <c r="C8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -851,8 +2612,17 @@
       <c r="C9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -862,65 +2632,389 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -932,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4DDEFE-EED1-4912-89B8-F021A61386C2}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,7 +3094,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1023,34 +3117,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,7 +3158,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1078,7 +3172,88 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1092,14 +3267,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="110.625" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="40.75" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
@@ -1132,13 +3307,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +3324,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1170,6 +3345,9 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1177,6 +3355,9 @@
       </c>
       <c r="B7" t="s">
         <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
